--- a/theo/outputs/HES/correlations.xlsx
+++ b/theo/outputs/HES/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.3807347241873123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1201850878231589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1605916385202478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.80376091232265</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.2974085325016619</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.04338705089367163</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.04336004139492797</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3394342339206052</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3333166548801841</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.04338705089367163</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.04336004139492797</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3394342339206052</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3333166548801841</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.04317666308113711</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.04775747267047128</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.01916597632529155</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.3807347241873123</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.02181397872412917</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.111387344304032</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.5618690636127925</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.5869799529509008</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08251096495804137</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08188944039832216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5201812472988436</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5122552971625025</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.06105306650357054</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.06162381288973288</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4943596104652784</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4863917486781001</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1080159493862354</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1097704615106355</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.113743526892035</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.1201850878231589</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.02181397872412917</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.7495419159165659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.124201043098144</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>5.483519413076302e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.08111661470508774</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.07739476562758747</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.03820047558436412</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.03749438374887285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1561449004055405</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1511064179296742</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.0389761453272655</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.03579020208688674</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.376580825178787</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.2326712295241972</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9194011967825101</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.1605916385202478</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.111387344304032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.7495419159165659</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1863252545957196</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.02639029010621044</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.09967794862315552</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.0984035321705191</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.09907446006764196</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.0978372791320679</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1851093333875433</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1812758139226171</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.0902352159665028</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.08724758682916738</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3309629980051995</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1539004400623013</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.6567127892484047</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.80376091232265</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>0.5618690636127925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.124201043098144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1863252545957196</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.1416356047035656</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.08594148622073723</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.08686126345891737</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4907762683293002</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4877662296601419</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.09330890478238411</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.09507406730834991</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4924343436838502</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.489584765718705</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.08370206053928321</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1651601606654768</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.09907733955912112</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.2974085325016619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.5869799529509008</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>5.483519413076302e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>0.02639029010621044</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>0.1416356047035656</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.08802169809144876</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.08961673167577053</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.3861089402792</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.3945613512116115</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1208722366789355</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1229269681674769</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.3916327293982613</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.4001815729113267</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.03685404901649873</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.03859710857619149</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.006232580367006361</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.04338705089367163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08251096495804137</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.08111661470508774</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.09967794862315552</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.08594148622073723</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.08802169809144876</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996399148433719</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1849988995827184</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1852175366361885</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05873577433498577</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.05936567862102662</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1682126149136627</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1679614242164135</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.02361067224844699</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.01597155239887435</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.0116364505013546</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.04336004139492797</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08188944039832216</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.07739476562758747</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.0984035321705191</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.08686126345891737</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.08961673167577053</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996399148433719</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1860177402100473</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1862716358230581</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.0599761768189259</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.06068209789005211</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1688548072229795</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1686265786408445</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.02736763983087188</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.01900546430565636</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.008381508223557634</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3394342339206052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5201812472988436</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.03820047558436412</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.09907446006764196</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.4907762683293002</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.3861089402792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1849988995827184</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1860177402100473</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998857627985666</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.06117419184905287</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06264384483026536</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9766917448751162</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9766366015989987</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.0841948069792092</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1657879906258649</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1230236248749632</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3333166548801841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5122552971625025</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.03749438374887285</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.0978372791320679</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.4877662296601419</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.3945613512116115</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1852175366361885</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1862716358230581</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998857627985666</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06174677017724151</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06317151755740688</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9766224038895236</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9767821514174013</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.08346997850338109</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1659408024879136</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1231014265454287</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.04338705089367163</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.06105306650357054</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1561449004055405</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1851093333875433</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.09330890478238411</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1208722366789355</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05873577433498577</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.0599761768189259</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.06117419184905287</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06174677017724151</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996399148433719</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1849988995827184</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1852175366361885</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.0118644704699402</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05195119282276289</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.07682004773877645</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.04336004139492797</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.06162381288973288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1511064179296742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1812758139226171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.09507406730834991</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1229269681674769</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.05936567862102662</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.06068209789005211</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.06264384483026536</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06317151755740688</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9996399148433719</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1860177402100473</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1862716358230581</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.01466768437440648</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.05473902564915119</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.07029555041962832</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.3394342339206052</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4943596104652784</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.0389761453272655</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.0902352159665028</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.4924343436838502</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.3916327293982613</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1682126149136627</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1688548072229795</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9766917448751162</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9766224038895236</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1849988995827184</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1860177402100473</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998857627985666</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.06368670115805919</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.1695777641983844</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1027416251317396</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3333166548801841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4863917486781001</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.03579020208688674</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.08724758682916738</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.489584765718705</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.4001815729113267</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1679614242164135</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1686265786408445</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9766366015989987</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9767821514174013</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1852175366361885</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1862716358230581</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9998857627985666</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.06405400356901991</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1697758892569953</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1055127315333865</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.04317666308113711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.1080159493862354</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.376580825178787</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3309629980051995</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.08370206053928321</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>-0.03685404901649873</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.02361067224844699</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.02736763983087188</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.0841948069792092</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.08346997850338109</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.0118644704699402</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.01466768437440648</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.06368670115805919</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.06405400356901991</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5470592201717042</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.3915951572319771</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.04775747267047128</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.1097704615106355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.2326712295241972</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1539004400623013</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1651601606654768</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.03859710857619149</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.01597155239887435</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.01900546430565636</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1657879906258649</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1659408024879136</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05195119282276289</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.05473902564915119</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.1695777641983844</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1697758892569953</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5470592201717042</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2630366962810825</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.01916597632529155</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.113743526892035</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9194011967825101</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.6567127892484047</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.09907733955912112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>-0.006232580367006361</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.0116364505013546</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.008381508223557634</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1230236248749632</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1231014265454287</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.07682004773877645</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.07029555041962832</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1027416251317396</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1055127315333865</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.3915951572319771</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2630366962810825</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.1672285316963004</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.03252666431281653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.02901708617651342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.1797742828219397</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.1600669297636439</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02051295660301252</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02025557267867162</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07748444611151786</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.07837190968417267</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02051295660301252</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02025557267867162</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07748444611151786</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.07837190968417267</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.00924299437321428</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.02033897066533656</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.005208675170020476</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.1672285316963004</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.02830808198768258</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.01082397407102246</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1050934101033873</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.7721673412562308</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.0656036248575395</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.06517642605517031</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.401894387930664</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3947656069038931</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05038261032801735</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.0507555302191325</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3815006232058887</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3743798740153148</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01664883429235459</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.05069735940432198</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.04391468798260689</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.03252666431281653</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.02830808198768258</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.394768551619345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.004254872976056168</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.01008155227817093</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.05255607489633102</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.05777867333036131</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03030014964298417</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.03177948382529021</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1872728548911882</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1862170048859583</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.002313077235085503</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.00483644671015937</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5358260099391213</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.253564002462445</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9712488422046694</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.02901708617651342</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.01082397407102246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.394768551619345</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1699466607786992</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.03289450197374081</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1520067745032307</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1537718271821882</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.03100893295300339</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.03052547563042332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.1118615949320344</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.1107869829124506</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.04152129806920641</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04013328734950525</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5642253177327256</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1047375848490712</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3023372950046482</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.1797742828219397</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1050934101033873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.004254872976056168</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1699466607786992</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1935578011537105</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.01236403341694346</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.0124342847278623</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.1197519233442978</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.1182565901065191</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.01947715062274244</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.01963980550563814</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.1210093778867399</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.1195291788057466</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1523518067119239</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1574721262817624</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.09749381210843296</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.1600669297636439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.7721673412562308</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.01008155227817093</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.03289450197374081</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1935578011537105</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05670424770642418</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05746940523986422</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2715147889734105</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2787269743786352</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07685842591212426</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.0775176660616214</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2749858451157543</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2821736730989293</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.0211696059151444</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.01948869856660343</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.004425316084180908</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02051295660301252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.0656036248575395</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.05255607489633102</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1520067745032307</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.01236403341694346</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05670424770642418</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995289950871823</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.180736110149784</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1806092165247739</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.01905559860556978</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.01824402158044766</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1781223865068707</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1779443807652817</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1890663407182436</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.05079102881960208</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1002075761399103</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02025557267867162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.06517642605517031</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.05777867333036131</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1537718271821882</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.0124342847278623</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05746940523986422</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995289950871823</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1811713533217019</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1811492903484821</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.01843907829031711</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.01763475614211871</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1787482441243459</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1786776587779549</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1955642448526052</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.05206758742617191</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1057600162685866</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07748444611151786</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.401894387930664</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.03030014964298417</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.03100893295300339</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.1197519233442978</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2715147889734105</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.180736110149784</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1811713533217019</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995957224287191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.03373877223107681</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.03412418581280575</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9734522672041145</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9730201140527245</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.05572403122753152</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.104873132340243</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.0601379352239872</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.07837190968417267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3947656069038931</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.03177948382529021</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.03052547563042332</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.1182565901065191</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2787269743786352</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1806092165247739</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1811492903484821</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995957224287191</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.03477243802224774</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.035144041680958</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.973204241929444</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9735550997778254</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.05660908734282177</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1052478782225626</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.06097360993966147</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02051295660301252</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05038261032801735</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1872728548911882</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.1118615949320344</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.01947715062274244</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07685842591212426</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.01905559860556978</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.01843907829031711</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.03373877223107681</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.03477243802224774</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995289950871823</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.180736110149784</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1806092165247739</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.04343192752436281</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.02881817022031695</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1129126036603779</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02025557267867162</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.0507555302191325</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1862170048859583</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.1107869829124506</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.01963980550563814</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.0775176660616214</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.01824402158044766</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.01763475614211871</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.03412418581280575</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.035144041680958</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9995289950871823</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1811713533217019</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1811492903484821</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.04357119213810039</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.02828036316821624</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1118177334777122</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.07748444611151786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3815006232058887</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.002313077235085503</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.04152129806920641</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.1210093778867399</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2749858451157543</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1781223865068707</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1787482441243459</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9734522672041145</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.973204241929444</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.180736110149784</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1811713533217019</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995957224287191</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.0452472498050117</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1085578574485283</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.04107171875647964</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.07837190968417267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3743798740153148</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.00483644671015937</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04013328734950525</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.1195291788057466</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2821736730989293</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1779443807652817</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1786776587779549</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9730201140527245</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9735550997778254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1806092165247739</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1811492903484821</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995957224287191</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.04618887289353852</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1087244822504912</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.04298237353771307</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.00924299437321428</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01664883429235459</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5358260099391213</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5642253177327256</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1523518067119239</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.0211696059151444</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.1890663407182436</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.1955642448526052</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.05572403122753152</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.05660908734282177</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.04343192752436281</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.04357119213810039</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.0452472498050117</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.04618887289353852</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3241041959876407</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5949312868898828</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.02033897066533656</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.05069735940432198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.253564002462445</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1047375848490712</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1574721262817624</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.01948869856660343</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.05079102881960208</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.05206758742617191</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.104873132340243</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1052478782225626</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.02881817022031695</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.02828036316821624</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1085578574485283</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1087244822504912</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3241041959876407</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.287466202155405</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.005208675170020476</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.04391468798260689</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9712488422046694</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3023372950046482</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.09749381210843296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.004425316084180908</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.1002075761399103</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1057600162685866</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.0601379352239872</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.06097360993966147</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1129126036603779</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1118177334777122</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.04107171875647964</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.04298237353771307</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5949312868898828</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.287466202155405</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7115495185958141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.0712710021138736</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.06888615806047389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.3886122655984986</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.708826185055133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.002738396917254069</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00362304148912161</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02333140347984114</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02795898080497368</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.002738396917254069</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00362304148912161</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02333140347984114</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02795898080497368</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.006922363814706848</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.0009550880129430376</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.002715601677501493</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7115495185958141</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.04177731641628282</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.03506256160689378</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.1970012387508489</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9595406910633513</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02306398703360402</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02173411049522305</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1317357844775955</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1241443855941181</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02686653929694165</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02795640713947928</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1227702477013745</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1152678172485263</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.01011335141941559</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.01212851649542574</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.005743903386597273</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.0712710021138736</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.04177731641628282</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.577881480374604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.06357571390493688</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.04325851679697863</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.05540674456385521</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.05466275398022618</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.003331425191407305</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.0007989453138834699</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.04314589434935719</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.04260264623009038</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01737432162889564</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01901991251840348</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4597437795300705</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.1844606622388572</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9055888287840081</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.06888615806047389</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.03506256160689378</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.577881480374604</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1792588921149524</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.03757923220696938</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.009075962371399309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.006974392556752722</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.009235398106967186</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.007157067034313506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.06056471508863394</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.06092787957330288</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.005714579836978938</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.001574951569661377</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4590798821905782</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.107360449740882</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4103970613573227</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.3886122655984986</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.1970012387508489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.06357571390493688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1792588921149524</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.2183981874160422</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01416683590412533</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01274438575841055</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.07743795566681722</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.06424181333710434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.01085620420258128</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01075930927369769</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.07684405678600456</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.06388319920354943</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1258524647102819</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1015759479894691</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1038225500058121</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.708826185055133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9595406910633513</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.04325851679697863</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.03757923220696938</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.2183981874160422</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02796466736704549</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02937308307584342</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1527102289291469</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.158694278147299</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02827096076275664</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02952430203416288</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1527542980155015</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1587068352318015</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.006198044149634507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.001211543177890282</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.007196271816136614</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.002738396917254069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02306398703360402</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.05540674456385521</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.009075962371399309</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01416683590412533</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02796466736704549</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9951954662115382</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778336351591511</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760849257687069</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01311864529767745</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.009935601109934912</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1758124383813215</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1741260805682721</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.07136008837829054</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.01167022085939433</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.09433469630724969</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00362304148912161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02173411049522305</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.05466275398022618</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.006974392556752722</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01274438575841055</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02937308307584342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9951954662115382</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1778342422363782</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1779314686424572</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.01055053359859747</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.007388484649307038</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1758911766702598</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1760038154312522</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.06841384070651116</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.01177524163126488</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.09111002822593696</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02333140347984114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1317357844775955</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.003331425191407305</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.009235398106967186</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.07743795566681722</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1527102289291469</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778336351591511</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1778342422363782</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9944224809588724</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008858312767204904</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.009908217917954164</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9698206657156547</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9645604630273888</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.01367583447940069</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.04683469782738063</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.04549521875364625</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02795898080497368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1241443855941181</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.0007989453138834699</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.007157067034313506</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.06424181333710434</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.158694278147299</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760849257687069</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1779314686424572</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9944224809588724</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01073983446656204</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01201942254357031</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9646276961723494</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9701776699729112</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.008657572233203577</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.041809316948853</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03954540920984078</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.002738396917254069</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02686653929694165</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.04314589434935719</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.06056471508863394</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.01085620420258128</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02827096076275664</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.01311864529767745</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.01055053359859747</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.008858312767204904</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01073983446656204</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9951954662115382</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778336351591511</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760849257687069</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.02253358028914226</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.004638771292943673</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.02407442679252456</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.00362304148912161</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02795640713947928</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.04260264623009038</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.06092787957330288</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01075930927369769</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02952430203416288</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.009935601109934912</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.007388484649307038</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.009908217917954164</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01201942254357031</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9951954662115382</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1778342422363782</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1779314686424572</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.02393946723025959</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.003602900602274269</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.02193927108542775</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.02333140347984114</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1227702477013745</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01737432162889564</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.005714579836978938</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.07684405678600456</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1527542980155015</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1758124383813215</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1758911766702598</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9698206657156547</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9646276961723494</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1778336351591511</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1778342422363782</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9944224809588724</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.0256933181529213</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.04758099227539028</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.04845082877357135</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.02795898080497368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1152678172485263</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01901991251840348</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.001574951569661377</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.06388319920354943</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1587068352318015</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1741260805682721</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1760038154312522</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9645604630273888</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9701776699729112</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760849257687069</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1779314686424572</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9944224809588724</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02304651340759084</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.04263123735281235</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.04684964490727886</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.006922363814706848</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.01011335141941559</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4597437795300705</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4590798821905782</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1258524647102819</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.006198044149634507</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.07136008837829054</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.06841384070651116</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.01367583447940069</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.008657572233203577</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.02253358028914226</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.02393946723025959</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.0256933181529213</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.02304651340759084</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.3176191327493488</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5392178033114661</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.0009550880129430376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.01212851649542574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.1844606622388572</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.107360449740882</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1015759479894691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.001211543177890282</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.01167022085939433</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.01177524163126488</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.04683469782738063</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.041809316948853</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.004638771292943673</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.003602900602274269</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.04758099227539028</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.04263123735281235</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.3176191327493488</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.214620629862102</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.002715601677501493</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.005743903386597273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9055888287840081</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.4103970613573227</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1038225500058121</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.007196271816136614</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.09433469630724969</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.09111002822593696</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.04549521875364625</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03954540920984078</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.02407442679252456</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.02193927108542775</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.04845082877357135</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.04684964490727886</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5392178033114661</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.214620629862102</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
